--- a/rrd/AppData/CaseConfigData.xlsx
+++ b/rrd/AppData/CaseConfigData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\Downloads\Devworkspace\Devworkspace\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devworkspace\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEB1B8-DF00-468D-B73E-67BE1CE1D097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caseconfig1" sheetId="1" r:id="rId1"/>
@@ -33,6 +34,7 @@
     <sheet name="Caseconfig17" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,36 +424,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -468,36 +470,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16BAE9E-DD36-4D62-87B4-C730BC031D6F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -518,36 +520,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB65BBD-38A1-40DE-A37F-8C65FBC4DB9A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -564,36 +566,36 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E912C78-B53F-47EA-8DF4-F85F999BC207}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -610,36 +612,36 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8419585A-F024-462F-A3A1-A383D8B44D22}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -656,36 +658,36 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDBF764-AF0A-4719-AF48-189F7E5B1E20}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -702,36 +704,36 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35128E2-915F-45BE-A0DA-A5686BB86B18}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -748,36 +750,36 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B910DE17-37F0-424F-B8B8-54AE8787B329}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -794,36 +796,36 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405E757-18F1-4133-959B-4AA0915C2ED5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -843,36 +845,36 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1678A80-D07C-4A79-989B-E8B8C97A9117}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -892,36 +894,36 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46C0628-999A-4FA0-AC12-93FF62831312}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -938,36 +940,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148779BD-D454-46CD-A9B5-7B2C7B8C1C68}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -984,36 +986,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7E895-A9DD-4986-9879-BE132A4AE430}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1030,36 +1032,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6DBC1F-5A17-4306-966E-246711EE2C56}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1076,36 +1078,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE1EE32-547E-4E7A-8167-D79EB3CA49FE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1123,36 +1125,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA661EBF-0262-4134-BD9E-8A7E18D793DD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1169,36 +1171,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5AD3A-FA89-4ACF-BDAB-8085A8B713E3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1218,36 +1220,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F4027-6DE5-42BF-907D-751322840A0B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1267,36 +1269,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBD3C10-D204-4311-B14F-AFFA97395D23}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>

--- a/rrd/AppData/CaseConfigData.xlsx
+++ b/rrd/AppData/CaseConfigData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devworkspace\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEB1B8-DF00-468D-B73E-67BE1CE1D097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155234F9-ED22-401A-950E-5C4FCB196677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caseconfig1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <sheet name="Caseconfig17" sheetId="17" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,29 +430,29 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -477,29 +476,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -527,29 +526,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -573,29 +572,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -619,29 +618,29 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -665,29 +664,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +710,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -757,29 +756,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -803,29 +802,29 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -852,29 +851,29 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -901,29 +900,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -947,29 +946,29 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -993,29 +992,29 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1035,33 +1034,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6DBC1F-5A17-4306-966E-246711EE2C56}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1085,29 +1082,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1132,29 +1129,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1178,29 +1175,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1223,33 +1220,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F4027-6DE5-42BF-907D-751322840A0B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1276,29 +1273,29 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
